--- a/biology/Botanique/Lindelofia_longiflora/Lindelofia_longiflora.xlsx
+++ b/biology/Botanique/Lindelofia_longiflora/Lindelofia_longiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lindelofia longiflora est une plante herbacée de la famille des Boraginacées originaire d'Asie himalayenne.
 </t>
@@ -511,16 +523,18 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lindelofia longiflora, comme le genre, appartient à la sous-famille des Boraginoideae.
-En 1836, George Bentham décrit une espèce dans le genre Cynoglossum : Cynoglossum longiflorum Benth.[1]
-En 1846, Alphonse Pyrame de Candolle la place dans le genre Omphalodes : Omphalodes longiflora (Benth.) A.DC.[2]
-Pierre Edmond Boisset, en 1849, décrit cette espèce dans le nouveau genre Paracaryum qu'il crée dans la famille : Paracaryum longiflorum (Benth.) Boiss.[3]
-Johann Georg Christian Lehmann utilise cette espèce comme l'une des deux espèces types du genre qu'il décrit en 1850, mais avec une épithète spécifique différente : Lindelofia spectabilis  Lehm.[4]. 
-En 1852, Gottlieb Wilhelm T.G. Bischoff nomme un genre Anchusopsis avec une unique espèce : Anchusopsis longiflora (Benth.) Bisch. sur la base de Cynoglossum longiflorum Benth.[5].
-En 1890, Henri Ernest Baillon corrige l'épithète spécifique de Johann Georg Christian Lehmann en attribuant l'épithète de George Bentham : Lindelofia longiflora (Benth.) Baill.[6]
-Mikhail Grigoríevič Popov, dans la une revue complète du genre en 1953, confirme ce classement dans le genre Lindelofia[7].
+En 1836, George Bentham décrit une espèce dans le genre Cynoglossum : Cynoglossum longiflorum Benth.
+En 1846, Alphonse Pyrame de Candolle la place dans le genre Omphalodes : Omphalodes longiflora (Benth.) A.DC.
+Pierre Edmond Boisset, en 1849, décrit cette espèce dans le nouveau genre Paracaryum qu'il crée dans la famille : Paracaryum longiflorum (Benth.) Boiss.
+Johann Georg Christian Lehmann utilise cette espèce comme l'une des deux espèces types du genre qu'il décrit en 1850, mais avec une épithète spécifique différente : Lindelofia spectabilis  Lehm.. 
+En 1852, Gottlieb Wilhelm T.G. Bischoff nomme un genre Anchusopsis avec une unique espèce : Anchusopsis longiflora (Benth.) Bisch. sur la base de Cynoglossum longiflorum Benth..
+En 1890, Henri Ernest Baillon corrige l'épithète spécifique de Johann Georg Christian Lehmann en attribuant l'épithète de George Bentham : Lindelofia longiflora (Benth.) Baill.
+Mikhail Grigoríevič Popov, dans la une revue complète du genre en 1953, confirme ce classement dans le genre Lindelofia.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de plantes vivaces herbacées érigées, pouvant atteindre 60 cm de haut.
 Les feuilles sont entières et alternes. Les feuilles basales sont longuement pétiolées.
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lindelofia longiflora est originaire de l'Himalaya : Pakistan, Cachemire, nord de l'Inde.
 Un début d'utilisation ornementale commence à la répandre dans les pays tempérés froids.
